--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_64ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2752,28 +2752,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1312.271732497615</v>
+        <v>1405.831498138251</v>
       </c>
       <c r="AB2" t="n">
-        <v>1795.508077746169</v>
+        <v>1923.520676661237</v>
       </c>
       <c r="AC2" t="n">
-        <v>1624.147306817488</v>
+        <v>1739.942562958913</v>
       </c>
       <c r="AD2" t="n">
-        <v>1312271.732497616</v>
+        <v>1405831.498138251</v>
       </c>
       <c r="AE2" t="n">
-        <v>1795508.077746169</v>
+        <v>1923520.676661237</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.176972219605116e-06</v>
+        <v>1.989729934132765e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.21571180555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1624147.306817488</v>
+        <v>1739942.562958913</v>
       </c>
     </row>
     <row r="3">
@@ -2858,28 +2858,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>624.1192316756135</v>
+        <v>686.5207960485268</v>
       </c>
       <c r="AB3" t="n">
-        <v>853.9474669758105</v>
+        <v>939.3280403135562</v>
       </c>
       <c r="AC3" t="n">
-        <v>772.4479192504358</v>
+        <v>849.6798905012145</v>
       </c>
       <c r="AD3" t="n">
-        <v>624119.2316756134</v>
+        <v>686520.7960485268</v>
       </c>
       <c r="AE3" t="n">
-        <v>853947.4669758105</v>
+        <v>939328.0403135562</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.853875963230143e-06</v>
+        <v>3.134069298123131e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.92881944444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>772447.9192504358</v>
+        <v>849679.8905012144</v>
       </c>
     </row>
     <row r="4">
@@ -2964,28 +2964,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>505.2412081560961</v>
+        <v>557.3136291790003</v>
       </c>
       <c r="AB4" t="n">
-        <v>691.2933106681495</v>
+        <v>762.5410943847691</v>
       </c>
       <c r="AC4" t="n">
-        <v>625.3172473342358</v>
+        <v>689.7652425698336</v>
       </c>
       <c r="AD4" t="n">
-        <v>505241.2081560961</v>
+        <v>557313.6291790003</v>
       </c>
       <c r="AE4" t="n">
-        <v>691293.3106681495</v>
+        <v>762541.0943847691</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.114087098882963e-06</v>
+        <v>3.573969133632255e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.583333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>625317.2473342358</v>
+        <v>689765.2425698336</v>
       </c>
     </row>
     <row r="5">
@@ -3070,28 +3070,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>444.408965552696</v>
+        <v>496.3960457210285</v>
       </c>
       <c r="AB5" t="n">
-        <v>608.0599526090419</v>
+        <v>679.1909692034637</v>
       </c>
       <c r="AC5" t="n">
-        <v>550.0275641495377</v>
+        <v>614.3699363531967</v>
       </c>
       <c r="AD5" t="n">
-        <v>444408.965552696</v>
+        <v>496396.0457210285</v>
       </c>
       <c r="AE5" t="n">
-        <v>608059.9526090419</v>
+        <v>679190.9692034638</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.256283568061021e-06</v>
+        <v>3.814359320026369e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.980034722222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>550027.5641495377</v>
+        <v>614369.9363531967</v>
       </c>
     </row>
     <row r="6">
@@ -3176,28 +3176,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>412.3779861209949</v>
+        <v>464.3650662893274</v>
       </c>
       <c r="AB6" t="n">
-        <v>564.2337534435081</v>
+        <v>635.36477003793</v>
       </c>
       <c r="AC6" t="n">
-        <v>510.3840759219057</v>
+        <v>574.7264481255647</v>
       </c>
       <c r="AD6" t="n">
-        <v>412377.986120995</v>
+        <v>464365.0662893275</v>
       </c>
       <c r="AE6" t="n">
-        <v>564233.7534435082</v>
+        <v>635364.77003793</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.343113979312231e-06</v>
+        <v>3.961150438441684e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.648003472222221</v>
       </c>
       <c r="AH6" t="n">
-        <v>510384.0759219056</v>
+        <v>574726.4481255647</v>
       </c>
     </row>
     <row r="7">
@@ -3282,28 +3282,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>387.3174408411569</v>
+        <v>428.8901263134596</v>
       </c>
       <c r="AB7" t="n">
-        <v>529.9448097984049</v>
+        <v>586.8263921190513</v>
       </c>
       <c r="AC7" t="n">
-        <v>479.3676209334564</v>
+        <v>530.8205048712224</v>
       </c>
       <c r="AD7" t="n">
-        <v>387317.4408411569</v>
+        <v>428890.1263134597</v>
       </c>
       <c r="AE7" t="n">
-        <v>529944.8097984049</v>
+        <v>586826.3921190513</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.404455463389699e-06</v>
+        <v>4.064851260806052e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.426649305555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>479367.6209334563</v>
+        <v>530820.5048712224</v>
       </c>
     </row>
     <row r="8">
@@ -3388,28 +3388,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>382.5165305902074</v>
+        <v>424.08921606251</v>
       </c>
       <c r="AB8" t="n">
-        <v>523.3759925918437</v>
+        <v>580.25757491249</v>
       </c>
       <c r="AC8" t="n">
-        <v>473.4257224216964</v>
+        <v>524.8786063594625</v>
       </c>
       <c r="AD8" t="n">
-        <v>382516.5305902074</v>
+        <v>424089.21606251</v>
       </c>
       <c r="AE8" t="n">
-        <v>523375.9925918436</v>
+        <v>580257.57491249</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.416593047758148e-06</v>
+        <v>4.085370449401742e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.383246527777779</v>
       </c>
       <c r="AH8" t="n">
-        <v>473425.7224216964</v>
+        <v>524878.6063594625</v>
       </c>
     </row>
   </sheetData>
@@ -3685,28 +3685,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>911.249976143085</v>
+        <v>981.7986997040854</v>
       </c>
       <c r="AB2" t="n">
-        <v>1246.812418870636</v>
+        <v>1343.340294836819</v>
       </c>
       <c r="AC2" t="n">
-        <v>1127.818391525843</v>
+        <v>1215.133782487538</v>
       </c>
       <c r="AD2" t="n">
-        <v>911249.9761430849</v>
+        <v>981798.6997040854</v>
       </c>
       <c r="AE2" t="n">
-        <v>1246812.418870636</v>
+        <v>1343340.294836819</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.448304903146081e-06</v>
+        <v>2.508161407362057e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.47265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1127818.391525843</v>
+        <v>1215133.782487538</v>
       </c>
     </row>
     <row r="3">
@@ -3791,28 +3791,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>507.4659133539872</v>
+        <v>557.8335012272673</v>
       </c>
       <c r="AB3" t="n">
-        <v>694.3372504669707</v>
+        <v>763.2524062563442</v>
       </c>
       <c r="AC3" t="n">
-        <v>628.0706777908537</v>
+        <v>690.408667834718</v>
       </c>
       <c r="AD3" t="n">
-        <v>507465.9133539872</v>
+        <v>557833.5012272673</v>
       </c>
       <c r="AE3" t="n">
-        <v>694337.2504669706</v>
+        <v>763252.4062563442</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.079783226371762e-06</v>
+        <v>3.601749888944794e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>628070.6777908537</v>
+        <v>690408.667834718</v>
       </c>
     </row>
     <row r="4">
@@ -3897,28 +3897,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>419.3426569709305</v>
+        <v>459.7050178549222</v>
       </c>
       <c r="AB4" t="n">
-        <v>573.7631233599826</v>
+        <v>628.9886861831492</v>
       </c>
       <c r="AC4" t="n">
-        <v>519.0039761481065</v>
+        <v>568.9588887649942</v>
       </c>
       <c r="AD4" t="n">
-        <v>419342.6569709305</v>
+        <v>459705.0178549222</v>
       </c>
       <c r="AE4" t="n">
-        <v>573763.1233599826</v>
+        <v>628988.6861831492</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.315549299634821e-06</v>
+        <v>4.010047454491362e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.051649305555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>519003.9761481065</v>
+        <v>568958.8887649942</v>
       </c>
     </row>
     <row r="5">
@@ -4003,28 +4003,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>366.7229422368021</v>
+        <v>417.090440601531</v>
       </c>
       <c r="AB5" t="n">
-        <v>501.7665082427716</v>
+        <v>570.6815415625966</v>
       </c>
       <c r="AC5" t="n">
-        <v>453.8786169297981</v>
+        <v>516.2164961924359</v>
       </c>
       <c r="AD5" t="n">
-        <v>366722.9422368021</v>
+        <v>417090.4406015311</v>
       </c>
       <c r="AE5" t="n">
-        <v>501766.5082427716</v>
+        <v>570681.5415625967</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.442076770333145e-06</v>
+        <v>4.229166590446299e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.582899305555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>453878.616929798</v>
+        <v>516216.4961924359</v>
       </c>
     </row>
     <row r="6">
@@ -4109,28 +4109,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>353.8886006443211</v>
+        <v>394.1656206737411</v>
       </c>
       <c r="AB6" t="n">
-        <v>484.2059958647492</v>
+        <v>539.3147915657182</v>
       </c>
       <c r="AC6" t="n">
-        <v>437.9940552068002</v>
+        <v>487.8433447917491</v>
       </c>
       <c r="AD6" t="n">
-        <v>353888.6006443211</v>
+        <v>394165.6206737411</v>
       </c>
       <c r="AE6" t="n">
-        <v>484205.9958647492</v>
+        <v>539314.7915657182</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.478489637854724e-06</v>
+        <v>4.292226066976842e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.45703125</v>
       </c>
       <c r="AH6" t="n">
-        <v>437994.0552068002</v>
+        <v>487843.3447917491</v>
       </c>
     </row>
     <row r="7">
@@ -4215,28 +4215,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>354.8152521128679</v>
+        <v>395.0922721422878</v>
       </c>
       <c r="AB7" t="n">
-        <v>485.4738812849924</v>
+        <v>540.5826769859615</v>
       </c>
       <c r="AC7" t="n">
-        <v>439.1409354220239</v>
+        <v>488.9902250069728</v>
       </c>
       <c r="AD7" t="n">
-        <v>354815.2521128679</v>
+        <v>395092.2721422878</v>
       </c>
       <c r="AE7" t="n">
-        <v>485473.8812849924</v>
+        <v>540582.6769859615</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.479648668120663e-06</v>
+        <v>4.294233265168796e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.452690972222221</v>
       </c>
       <c r="AH7" t="n">
-        <v>439140.9354220239</v>
+        <v>488990.2250069728</v>
       </c>
     </row>
   </sheetData>
@@ -4512,28 +4512,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>354.664306577145</v>
+        <v>409.1858185442939</v>
       </c>
       <c r="AB2" t="n">
-        <v>485.2673509437694</v>
+        <v>559.8660889365716</v>
       </c>
       <c r="AC2" t="n">
-        <v>438.9541160466999</v>
+        <v>506.4332551854554</v>
       </c>
       <c r="AD2" t="n">
-        <v>354664.306577145</v>
+        <v>409185.8185442939</v>
       </c>
       <c r="AE2" t="n">
-        <v>485267.3509437694</v>
+        <v>559866.0889365716</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.339056979225744e-06</v>
+        <v>4.425999145710469e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>10</v>
       </c>
       <c r="AH2" t="n">
-        <v>438954.1160466999</v>
+        <v>506433.2551854554</v>
       </c>
     </row>
     <row r="3">
@@ -4618,28 +4618,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>297.8452760855409</v>
+        <v>334.3068280449534</v>
       </c>
       <c r="AB3" t="n">
-        <v>407.5250467464439</v>
+        <v>457.4133507074574</v>
       </c>
       <c r="AC3" t="n">
-        <v>368.6314282499579</v>
+        <v>413.7584624996067</v>
       </c>
       <c r="AD3" t="n">
-        <v>297845.2760855409</v>
+        <v>334306.8280449534</v>
       </c>
       <c r="AE3" t="n">
-        <v>407525.0467464439</v>
+        <v>457413.3507074574</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.595563250734626e-06</v>
+        <v>4.911364208917902e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.010416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>368631.4282499579</v>
+        <v>413758.4624996067</v>
       </c>
     </row>
   </sheetData>
@@ -4915,28 +4915,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>513.8110552822081</v>
+        <v>570.6202477554507</v>
       </c>
       <c r="AB2" t="n">
-        <v>703.018953581068</v>
+        <v>780.7477969676486</v>
       </c>
       <c r="AC2" t="n">
-        <v>635.9238113445886</v>
+        <v>706.2343230114706</v>
       </c>
       <c r="AD2" t="n">
-        <v>513811.0552822081</v>
+        <v>570620.2477554507</v>
       </c>
       <c r="AE2" t="n">
-        <v>703018.953581068</v>
+        <v>780747.7969676486</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.975400853704205e-06</v>
+        <v>3.598751348203101e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>635923.8113445885</v>
+        <v>706234.3230114706</v>
       </c>
     </row>
     <row r="3">
@@ -5021,28 +5021,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>326.6223256600675</v>
+        <v>374.0201387003582</v>
       </c>
       <c r="AB3" t="n">
-        <v>446.8990755281378</v>
+        <v>511.7508543737964</v>
       </c>
       <c r="AC3" t="n">
-        <v>404.2476549865233</v>
+        <v>462.9100710791956</v>
       </c>
       <c r="AD3" t="n">
-        <v>326622.3256600675</v>
+        <v>374020.1387003582</v>
       </c>
       <c r="AE3" t="n">
-        <v>446899.0755281377</v>
+        <v>511750.8543737964</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.512065681906637e-06</v>
+        <v>4.576438115121893e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.90625</v>
       </c>
       <c r="AH3" t="n">
-        <v>404247.6549865233</v>
+        <v>462910.0710791956</v>
       </c>
     </row>
     <row r="4">
@@ -5127,28 +5127,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>310.6031805209831</v>
+        <v>358.0009935612738</v>
       </c>
       <c r="AB4" t="n">
-        <v>424.9809744340364</v>
+        <v>489.8327532796951</v>
       </c>
       <c r="AC4" t="n">
-        <v>384.421386698595</v>
+        <v>443.0838027912673</v>
       </c>
       <c r="AD4" t="n">
-        <v>310603.1805209831</v>
+        <v>358000.9935612738</v>
       </c>
       <c r="AE4" t="n">
-        <v>424980.9744340364</v>
+        <v>489832.7532796951</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.57877502750644e-06</v>
+        <v>4.697968055217275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.676215277777779</v>
       </c>
       <c r="AH4" t="n">
-        <v>384421.386698595</v>
+        <v>443083.8027912673</v>
       </c>
     </row>
   </sheetData>
@@ -5424,28 +5424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>282.3756590658163</v>
+        <v>326.2183167005608</v>
       </c>
       <c r="AB2" t="n">
-        <v>386.3588342687202</v>
+        <v>446.3462926461233</v>
       </c>
       <c r="AC2" t="n">
-        <v>349.4852893841424</v>
+        <v>403.7476289269327</v>
       </c>
       <c r="AD2" t="n">
-        <v>282375.6590658163</v>
+        <v>326218.3167005607</v>
       </c>
       <c r="AE2" t="n">
-        <v>386358.8342687202</v>
+        <v>446346.2926461233</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.567210395507921e-06</v>
+        <v>5.030905218805488e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.461805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>349485.2893841424</v>
+        <v>403747.6289269327</v>
       </c>
     </row>
     <row r="3">
@@ -5530,28 +5530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>283.734191843597</v>
+        <v>327.5768494783414</v>
       </c>
       <c r="AB3" t="n">
-        <v>388.217638749516</v>
+        <v>448.205097126919</v>
       </c>
       <c r="AC3" t="n">
-        <v>351.1666921741395</v>
+        <v>405.4290317169297</v>
       </c>
       <c r="AD3" t="n">
-        <v>283734.191843597</v>
+        <v>327576.8494783414</v>
       </c>
       <c r="AE3" t="n">
-        <v>388217.638749516</v>
+        <v>448205.097126919</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.571911631026183e-06</v>
+        <v>5.040118125680997e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.444444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>351166.6921741395</v>
+        <v>405429.0317169297</v>
       </c>
     </row>
   </sheetData>
@@ -5827,28 +5827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>999.3233890397022</v>
+        <v>1070.553423978366</v>
       </c>
       <c r="AB2" t="n">
-        <v>1367.318347920538</v>
+        <v>1464.778424170976</v>
       </c>
       <c r="AC2" t="n">
-        <v>1236.823403838355</v>
+        <v>1324.982027197528</v>
       </c>
       <c r="AD2" t="n">
-        <v>999323.3890397022</v>
+        <v>1070553.423978366</v>
       </c>
       <c r="AE2" t="n">
-        <v>1367318.347920538</v>
+        <v>1464778.424170977</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.377672508642026e-06</v>
+        <v>2.370259660917725e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>1236823.403838356</v>
+        <v>1324982.027197528</v>
       </c>
     </row>
     <row r="3">
@@ -5933,28 +5933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>535.2375701181445</v>
+        <v>586.0308512222044</v>
       </c>
       <c r="AB3" t="n">
-        <v>732.3356564507168</v>
+        <v>801.8332644987033</v>
       </c>
       <c r="AC3" t="n">
-        <v>662.4425692386091</v>
+        <v>725.307423115001</v>
       </c>
       <c r="AD3" t="n">
-        <v>535237.5701181445</v>
+        <v>586030.8512222044</v>
       </c>
       <c r="AE3" t="n">
-        <v>732335.6564507168</v>
+        <v>801833.2644987033</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.020611870870087e-06</v>
+        <v>3.47642475105768e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.27994791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>662442.5692386091</v>
+        <v>725307.4231150011</v>
       </c>
     </row>
     <row r="4">
@@ -6039,28 +6039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>439.8955411480835</v>
+        <v>480.5984566166987</v>
       </c>
       <c r="AB4" t="n">
-        <v>601.8844862204194</v>
+        <v>657.5760108504762</v>
       </c>
       <c r="AC4" t="n">
-        <v>544.4414756057238</v>
+        <v>594.8178792886337</v>
       </c>
       <c r="AD4" t="n">
-        <v>439895.5411480835</v>
+        <v>480598.4566166988</v>
       </c>
       <c r="AE4" t="n">
-        <v>601884.4862204194</v>
+        <v>657576.0108504762</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.26383189758164e-06</v>
+        <v>3.894880236251311e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.175347222222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>544441.4756057238</v>
+        <v>594817.8792886337</v>
       </c>
     </row>
     <row r="5">
@@ -6145,28 +6145,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>386.8119505204085</v>
+        <v>437.6051421159174</v>
       </c>
       <c r="AB5" t="n">
-        <v>529.2531756408979</v>
+        <v>598.7506612193359</v>
       </c>
       <c r="AC5" t="n">
-        <v>478.7419953692271</v>
+        <v>541.6067384643926</v>
       </c>
       <c r="AD5" t="n">
-        <v>386811.9505204085</v>
+        <v>437605.1421159173</v>
       </c>
       <c r="AE5" t="n">
-        <v>529253.1756408979</v>
+        <v>598750.661219336</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.393434383283113e-06</v>
+        <v>4.117858877318678e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.678385416666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>478741.9953692271</v>
+        <v>541606.7384643926</v>
       </c>
     </row>
     <row r="6">
@@ -6251,28 +6251,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>361.0277505654863</v>
+        <v>401.6453251795301</v>
       </c>
       <c r="AB6" t="n">
-        <v>493.9740957439534</v>
+        <v>549.5488532518126</v>
       </c>
       <c r="AC6" t="n">
-        <v>446.8299013431475</v>
+        <v>497.1006819941186</v>
       </c>
       <c r="AD6" t="n">
-        <v>361027.7505654863</v>
+        <v>401645.3251795301</v>
       </c>
       <c r="AE6" t="n">
-        <v>493974.0957439534</v>
+        <v>549548.8532518126</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.462830101254729e-06</v>
+        <v>4.237252905955191e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.433159722222221</v>
       </c>
       <c r="AH6" t="n">
-        <v>446829.9013431474</v>
+        <v>497100.6819941186</v>
       </c>
     </row>
     <row r="7">
@@ -6357,28 +6357,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>361.140763727118</v>
+        <v>401.7583383411618</v>
       </c>
       <c r="AB7" t="n">
-        <v>494.1287253374867</v>
+        <v>549.703482845346</v>
       </c>
       <c r="AC7" t="n">
-        <v>446.9697733052979</v>
+        <v>497.2405539562692</v>
       </c>
       <c r="AD7" t="n">
-        <v>361140.763727118</v>
+        <v>401758.3383411618</v>
       </c>
       <c r="AE7" t="n">
-        <v>494128.7253374867</v>
+        <v>549703.482845346</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.465701648205279e-06</v>
+        <v>4.242193348519461e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.424479166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>446969.7733052979</v>
+        <v>497240.5539562692</v>
       </c>
     </row>
   </sheetData>
@@ -6654,28 +6654,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>273.9776773785704</v>
+        <v>317.0650547931768</v>
       </c>
       <c r="AB2" t="n">
-        <v>374.8683452314264</v>
+        <v>433.8223958910249</v>
       </c>
       <c r="AC2" t="n">
-        <v>339.0914364935652</v>
+        <v>392.4189953007415</v>
       </c>
       <c r="AD2" t="n">
-        <v>273977.6773785704</v>
+        <v>317065.0547931768</v>
       </c>
       <c r="AE2" t="n">
-        <v>374868.3452314264</v>
+        <v>433822.395891025</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.530096825183718e-06</v>
+        <v>5.07198485442277e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.826388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>339091.4364935652</v>
+        <v>392418.9953007415</v>
       </c>
     </row>
   </sheetData>
@@ -6951,28 +6951,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>686.590184170828</v>
+        <v>755.204605526461</v>
       </c>
       <c r="AB2" t="n">
-        <v>939.4229802036765</v>
+        <v>1033.304258557085</v>
       </c>
       <c r="AC2" t="n">
-        <v>849.7657694614704</v>
+        <v>934.6871503720314</v>
       </c>
       <c r="AD2" t="n">
-        <v>686590.184170828</v>
+        <v>755204.605526461</v>
       </c>
       <c r="AE2" t="n">
-        <v>939422.9802036765</v>
+        <v>1033304.258557085</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.690035400297648e-06</v>
+        <v>2.993178275218404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.77777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>849765.7694614704</v>
+        <v>934687.1503720314</v>
       </c>
     </row>
     <row r="3">
@@ -7057,28 +7057,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>416.8530899794792</v>
+        <v>465.7537565004617</v>
       </c>
       <c r="AB3" t="n">
-        <v>570.3567879703348</v>
+        <v>637.2648372494923</v>
       </c>
       <c r="AC3" t="n">
-        <v>515.9227366272248</v>
+        <v>576.4451755892164</v>
       </c>
       <c r="AD3" t="n">
-        <v>416853.0899794792</v>
+        <v>465753.7565004617</v>
       </c>
       <c r="AE3" t="n">
-        <v>570356.7879703349</v>
+        <v>637264.8372494923</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.275671526468033e-06</v>
+        <v>4.030383371471145e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.490017361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>515922.7366272248</v>
+        <v>576445.1755892164</v>
       </c>
     </row>
     <row r="4">
@@ -7163,28 +7163,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>344.1582470418302</v>
+        <v>393.1441649088334</v>
       </c>
       <c r="AB4" t="n">
-        <v>470.8924967929169</v>
+        <v>537.9171907247235</v>
       </c>
       <c r="AC4" t="n">
-        <v>425.9511778007703</v>
+        <v>486.579129013474</v>
       </c>
       <c r="AD4" t="n">
-        <v>344158.2470418302</v>
+        <v>393144.1649088334</v>
       </c>
       <c r="AE4" t="n">
-        <v>470892.4967929169</v>
+        <v>537917.1907247235</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.492113085418006e-06</v>
+        <v>4.413717455472796e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.665364583333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>425951.1778007703</v>
+        <v>486579.129013474</v>
       </c>
     </row>
     <row r="5">
@@ -7269,28 +7269,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>333.0534636707084</v>
+        <v>372.3958115025399</v>
       </c>
       <c r="AB5" t="n">
-        <v>455.6984422760817</v>
+        <v>509.5283782414828</v>
       </c>
       <c r="AC5" t="n">
-        <v>412.2072225220322</v>
+        <v>460.8997049496853</v>
       </c>
       <c r="AD5" t="n">
-        <v>333053.4636707084</v>
+        <v>372395.8115025398</v>
       </c>
       <c r="AE5" t="n">
-        <v>455698.4422760817</v>
+        <v>509528.3782414828</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.530823782627909e-06</v>
+        <v>4.482276976703436e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.532986111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>412207.2225220322</v>
+        <v>460899.7049496853</v>
       </c>
     </row>
   </sheetData>
@@ -7566,28 +7566,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>829.1532126898215</v>
+        <v>909.0000645312833</v>
       </c>
       <c r="AB2" t="n">
-        <v>1134.484005260295</v>
+        <v>1243.733990544275</v>
       </c>
       <c r="AC2" t="n">
-        <v>1026.210444056554</v>
+        <v>1125.033764078348</v>
       </c>
       <c r="AD2" t="n">
-        <v>829153.2126898215</v>
+        <v>909000.0645312833</v>
       </c>
       <c r="AE2" t="n">
-        <v>1134484.005260295</v>
+        <v>1243733.990544275</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.522708524693217e-06</v>
+        <v>2.655470705368125e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.89539930555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>1026210.444056554</v>
+        <v>1125033.764078347</v>
       </c>
     </row>
     <row r="3">
@@ -7672,28 +7672,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>470.093598328132</v>
+        <v>520.1045567972601</v>
       </c>
       <c r="AB3" t="n">
-        <v>643.2028002984196</v>
+        <v>711.6300000036535</v>
       </c>
       <c r="AC3" t="n">
-        <v>581.8164277787376</v>
+        <v>643.713031582282</v>
       </c>
       <c r="AD3" t="n">
-        <v>470093.5983281319</v>
+        <v>520104.5567972601</v>
       </c>
       <c r="AE3" t="n">
-        <v>643202.8002984195</v>
+        <v>711630.0000036536</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.14204927828554e-06</v>
+        <v>3.735546899291305e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.878472222222221</v>
       </c>
       <c r="AH3" t="n">
-        <v>581816.4277787376</v>
+        <v>643713.031582282</v>
       </c>
     </row>
     <row r="4">
@@ -7778,28 +7778,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>387.0478078958438</v>
+        <v>436.9734255104004</v>
       </c>
       <c r="AB4" t="n">
-        <v>529.5758861072617</v>
+        <v>597.886318690298</v>
       </c>
       <c r="AC4" t="n">
-        <v>479.0339068016081</v>
+        <v>540.8248875732138</v>
       </c>
       <c r="AD4" t="n">
-        <v>387047.8078958439</v>
+        <v>436973.4255104004</v>
       </c>
       <c r="AE4" t="n">
-        <v>529575.8861072616</v>
+        <v>597886.318690298</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.373912047813648e-06</v>
+        <v>4.139895323275771e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.912760416666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>479033.9068016081</v>
+        <v>540824.8875732138</v>
       </c>
     </row>
     <row r="5">
@@ -7884,28 +7884,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>349.6510173097752</v>
+        <v>389.7451249396494</v>
       </c>
       <c r="AB5" t="n">
-        <v>478.407947397441</v>
+        <v>533.2664742838259</v>
       </c>
       <c r="AC5" t="n">
-        <v>432.7493643475998</v>
+        <v>482.3722704223742</v>
       </c>
       <c r="AD5" t="n">
-        <v>349651.0173097752</v>
+        <v>389745.1249396494</v>
       </c>
       <c r="AE5" t="n">
-        <v>478407.947397441</v>
+        <v>533266.474283826</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.486528321491093e-06</v>
+        <v>4.336288271005821e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.509114583333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>432749.3643475998</v>
+        <v>482372.2704223742</v>
       </c>
     </row>
     <row r="6">
@@ -7990,28 +7990,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>346.7506715979543</v>
+        <v>386.6741870272363</v>
       </c>
       <c r="AB6" t="n">
-        <v>474.4395664403054</v>
+        <v>529.0646815518433</v>
       </c>
       <c r="AC6" t="n">
-        <v>429.1597200993555</v>
+        <v>478.5714908914788</v>
       </c>
       <c r="AD6" t="n">
-        <v>346750.6715979543</v>
+        <v>386674.1870272363</v>
       </c>
       <c r="AE6" t="n">
-        <v>474439.5664403054</v>
+        <v>529064.6815518433</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.49920374623401e-06</v>
+        <v>4.358393104949463e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.465711805555555</v>
       </c>
       <c r="AH6" t="n">
-        <v>429159.7200993555</v>
+        <v>478571.4908914788</v>
       </c>
     </row>
   </sheetData>
@@ -8287,28 +8287,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1194.771468283942</v>
+        <v>1277.385619528716</v>
       </c>
       <c r="AB2" t="n">
-        <v>1634.739032503214</v>
+        <v>1747.775358915438</v>
       </c>
       <c r="AC2" t="n">
-        <v>1478.721833611749</v>
+        <v>1580.970131678671</v>
       </c>
       <c r="AD2" t="n">
-        <v>1194771.468283942</v>
+        <v>1277385.619528716</v>
       </c>
       <c r="AE2" t="n">
-        <v>1634739.032503214</v>
+        <v>1747775.358915438</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.240966172662188e-06</v>
+        <v>2.109560246781627e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.45833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1478721.833611749</v>
+        <v>1580970.131678671</v>
       </c>
     </row>
     <row r="3">
@@ -8393,28 +8393,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>592.8369645055217</v>
+        <v>654.7761755940463</v>
       </c>
       <c r="AB3" t="n">
-        <v>811.1456889574645</v>
+        <v>895.8936501339223</v>
       </c>
       <c r="AC3" t="n">
-        <v>733.7310828534878</v>
+        <v>810.390817559775</v>
       </c>
       <c r="AD3" t="n">
-        <v>592836.9645055217</v>
+        <v>654776.1755940464</v>
       </c>
       <c r="AE3" t="n">
-        <v>811145.6889574644</v>
+        <v>895893.6501339222</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.90907013593603e-06</v>
+        <v>3.245292704835834e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.69878472222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>733731.0828534878</v>
+        <v>810390.817559775</v>
       </c>
     </row>
     <row r="4">
@@ -8499,28 +8499,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>483.6287093148721</v>
+        <v>535.1452437335266</v>
       </c>
       <c r="AB4" t="n">
-        <v>661.7221362774311</v>
+        <v>732.2093314181302</v>
       </c>
       <c r="AC4" t="n">
-        <v>598.5683043239635</v>
+        <v>662.3283004898342</v>
       </c>
       <c r="AD4" t="n">
-        <v>483628.7093148722</v>
+        <v>535145.2437335267</v>
       </c>
       <c r="AE4" t="n">
-        <v>661722.1362774312</v>
+        <v>732209.3314181302</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.161103156593495e-06</v>
+        <v>3.673732136117587e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.450954861111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>598568.3043239635</v>
+        <v>662328.3004898342</v>
       </c>
     </row>
     <row r="5">
@@ -8605,28 +8605,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>424.7918543530917</v>
+        <v>476.3936401177669</v>
       </c>
       <c r="AB5" t="n">
-        <v>581.2189556198773</v>
+        <v>651.8227954132259</v>
       </c>
       <c r="AC5" t="n">
-        <v>525.7482342414431</v>
+        <v>589.6137426580259</v>
       </c>
       <c r="AD5" t="n">
-        <v>424791.8543530917</v>
+        <v>476393.6401177669</v>
       </c>
       <c r="AE5" t="n">
-        <v>581218.9556198773</v>
+        <v>651822.7954132259</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.301612977296108e-06</v>
+        <v>3.912589518829931e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.873697916666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>525748.2342414431</v>
+        <v>589613.7426580259</v>
       </c>
     </row>
     <row r="6">
@@ -8711,28 +8711,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>393.773908729169</v>
+        <v>435.2089508791381</v>
       </c>
       <c r="AB6" t="n">
-        <v>538.7788340020434</v>
+        <v>595.472086656678</v>
       </c>
       <c r="AC6" t="n">
-        <v>487.3585382657304</v>
+        <v>538.6410664564864</v>
       </c>
       <c r="AD6" t="n">
-        <v>393773.908729169</v>
+        <v>435208.9508791381</v>
       </c>
       <c r="AE6" t="n">
-        <v>538778.8340020434</v>
+        <v>595472.086656678</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.383678994478075e-06</v>
+        <v>4.052096309000837e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.567708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>487358.5382657304</v>
+        <v>538641.0664564865</v>
       </c>
     </row>
     <row r="7">
@@ -8817,28 +8817,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>375.5293049524469</v>
+        <v>416.7937549018238</v>
       </c>
       <c r="AB7" t="n">
-        <v>513.8157622196202</v>
+        <v>570.2756030994078</v>
       </c>
       <c r="AC7" t="n">
-        <v>464.7779070183304</v>
+        <v>515.8492999264355</v>
       </c>
       <c r="AD7" t="n">
-        <v>375529.3049524469</v>
+        <v>416793.7549018238</v>
       </c>
       <c r="AE7" t="n">
-        <v>513815.7622196202</v>
+        <v>570275.6030994079</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.428100049649966e-06</v>
+        <v>4.127609158726374e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.411458333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>464777.9070183304</v>
+        <v>515849.2999264355</v>
       </c>
     </row>
     <row r="8">
@@ -8923,28 +8923,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>376.0000738677593</v>
+        <v>417.2645238171362</v>
       </c>
       <c r="AB8" t="n">
-        <v>514.4598890184093</v>
+        <v>570.919729898197</v>
       </c>
       <c r="AC8" t="n">
-        <v>465.3605592594808</v>
+        <v>516.4319521675858</v>
       </c>
       <c r="AD8" t="n">
-        <v>376000.0738677593</v>
+        <v>417264.5238171362</v>
       </c>
       <c r="AE8" t="n">
-        <v>514459.8890184093</v>
+        <v>570919.729898197</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.432617445091175e-06</v>
+        <v>4.135288431579819e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.396267361111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>465360.5592594808</v>
+        <v>516431.9521675858</v>
       </c>
     </row>
   </sheetData>
@@ -9220,28 +9220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>566.0173779263436</v>
+        <v>623.6662560932676</v>
       </c>
       <c r="AB2" t="n">
-        <v>774.4499474031788</v>
+        <v>853.3276858001726</v>
       </c>
       <c r="AC2" t="n">
-        <v>700.5375313703465</v>
+        <v>771.8872891203324</v>
       </c>
       <c r="AD2" t="n">
-        <v>566017.3779263436</v>
+        <v>623666.2560932676</v>
       </c>
       <c r="AE2" t="n">
-        <v>774449.9474031788</v>
+        <v>853327.6858001726</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.871465671606845e-06</v>
+        <v>3.374695469435999e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.80555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>700537.5313703466</v>
+        <v>771887.2891203325</v>
       </c>
     </row>
     <row r="3">
@@ -9326,28 +9326,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>363.8468206666383</v>
+        <v>402.2794956198053</v>
       </c>
       <c r="AB3" t="n">
-        <v>497.831271824945</v>
+        <v>550.4165532258226</v>
       </c>
       <c r="AC3" t="n">
-        <v>450.3189539525497</v>
+        <v>497.8855699004336</v>
       </c>
       <c r="AD3" t="n">
-        <v>363846.8206666383</v>
+        <v>402279.4956198053</v>
       </c>
       <c r="AE3" t="n">
-        <v>497831.271824945</v>
+        <v>550416.5532258225</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.424729610430172e-06</v>
+        <v>4.372361275481111e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.112413194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>450318.9539525497</v>
+        <v>497885.5699004335</v>
       </c>
     </row>
     <row r="4">
@@ -9432,28 +9432,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>317.5657784708773</v>
+        <v>365.5211694220757</v>
       </c>
       <c r="AB4" t="n">
-        <v>434.5075081172245</v>
+        <v>500.1221896591882</v>
       </c>
       <c r="AC4" t="n">
-        <v>393.0387213776336</v>
+        <v>452.3912298040162</v>
       </c>
       <c r="AD4" t="n">
-        <v>317565.7784708773</v>
+        <v>365521.1694220757</v>
       </c>
       <c r="AE4" t="n">
-        <v>434507.5081172244</v>
+        <v>500122.1896591882</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.561263828678623e-06</v>
+        <v>4.618564780432621e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.626302083333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>393038.7213776336</v>
+        <v>452391.2298040162</v>
       </c>
     </row>
     <row r="5">
@@ -9538,28 +9538,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>319.1108978808821</v>
+        <v>367.0662888320805</v>
       </c>
       <c r="AB5" t="n">
-        <v>436.6216086598504</v>
+        <v>502.2362902018141</v>
       </c>
       <c r="AC5" t="n">
-        <v>394.9510551316301</v>
+        <v>454.3035635580129</v>
       </c>
       <c r="AD5" t="n">
-        <v>319110.8978808821</v>
+        <v>367066.2888320806</v>
       </c>
       <c r="AE5" t="n">
-        <v>436621.6086598504</v>
+        <v>502236.2902018141</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.560856567774079e-06</v>
+        <v>4.61783039264753e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.628472222222221</v>
       </c>
       <c r="AH5" t="n">
-        <v>394951.0551316301</v>
+        <v>454303.5635580128</v>
       </c>
     </row>
   </sheetData>
@@ -9835,28 +9835,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>409.8445116443787</v>
+        <v>456.0178627957392</v>
       </c>
       <c r="AB2" t="n">
-        <v>560.7673418955961</v>
+        <v>623.9437579653745</v>
       </c>
       <c r="AC2" t="n">
-        <v>507.248493826987</v>
+        <v>564.3954414157228</v>
       </c>
       <c r="AD2" t="n">
-        <v>409844.5116443787</v>
+        <v>456017.8627957393</v>
       </c>
       <c r="AE2" t="n">
-        <v>560767.3418955961</v>
+        <v>623943.7579653745</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.203349032844453e-06</v>
+        <v>4.110745010770364e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.44487847222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>507248.493826987</v>
+        <v>564395.4414157227</v>
       </c>
     </row>
     <row r="3">
@@ -9941,28 +9941,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.5927180975808</v>
+        <v>341.7659797403904</v>
       </c>
       <c r="AB3" t="n">
-        <v>404.4429975314721</v>
+        <v>467.6192911317021</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.8435254863797</v>
+        <v>422.9903622938888</v>
       </c>
       <c r="AD3" t="n">
-        <v>295592.7180975808</v>
+        <v>341765.9797403904</v>
       </c>
       <c r="AE3" t="n">
-        <v>404442.9975314721</v>
+        <v>467619.2911317021</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.593959597848839e-06</v>
+        <v>4.839499469238101e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.873697916666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>365843.5254863797</v>
+        <v>422990.3622938888</v>
       </c>
     </row>
     <row r="4">
@@ -10047,28 +10047,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>297.5200180704821</v>
+        <v>343.6932797132917</v>
       </c>
       <c r="AB4" t="n">
-        <v>407.0800143808695</v>
+        <v>470.2563079810996</v>
       </c>
       <c r="AC4" t="n">
-        <v>368.2288691487471</v>
+        <v>425.3757059562561</v>
       </c>
       <c r="AD4" t="n">
-        <v>297520.0180704821</v>
+        <v>343693.2797132917</v>
       </c>
       <c r="AE4" t="n">
-        <v>407080.0143808695</v>
+        <v>470256.3079810996</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.593005078412227e-06</v>
+        <v>4.83771864107459e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.875868055555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>368228.8691487471</v>
+        <v>425375.7059562561</v>
       </c>
     </row>
   </sheetData>
@@ -17773,28 +17773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.7175635548548</v>
+        <v>354.5516767873182</v>
       </c>
       <c r="AB2" t="n">
-        <v>423.7692342303166</v>
+        <v>485.1132458964527</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.3252932792301</v>
+        <v>438.8147185688114</v>
       </c>
       <c r="AD2" t="n">
-        <v>309717.5635548548</v>
+        <v>354551.6767873183</v>
       </c>
       <c r="AE2" t="n">
-        <v>423769.2342303165</v>
+        <v>485113.2458964527</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.489141848310585e-06</v>
+        <v>4.786712080661207e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.565972222222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>383325.2932792301</v>
+        <v>438814.7185688114</v>
       </c>
     </row>
     <row r="3">
@@ -17879,28 +17879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>290.7068223792382</v>
+        <v>326.5742024737601</v>
       </c>
       <c r="AB3" t="n">
-        <v>397.7578994591295</v>
+        <v>446.8332312615869</v>
       </c>
       <c r="AC3" t="n">
-        <v>359.7964437914675</v>
+        <v>404.1880948043591</v>
       </c>
       <c r="AD3" t="n">
-        <v>290706.8223792383</v>
+        <v>326574.2024737601</v>
       </c>
       <c r="AE3" t="n">
-        <v>397757.8994591295</v>
+        <v>446833.2312615869</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.591393267678773e-06</v>
+        <v>4.983345351957761e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.188368055555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>359796.4437914675</v>
+        <v>404188.0948043591</v>
       </c>
     </row>
   </sheetData>
@@ -18176,28 +18176,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>276.9631056876748</v>
+        <v>319.0587802927596</v>
       </c>
       <c r="AB2" t="n">
-        <v>378.9531399517445</v>
+        <v>436.5502990765155</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.7863841388217</v>
+        <v>394.8865512348449</v>
       </c>
       <c r="AD2" t="n">
-        <v>276963.1056876748</v>
+        <v>319058.7802927596</v>
       </c>
       <c r="AE2" t="n">
-        <v>378953.1399517445</v>
+        <v>436550.2990765155</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.425148866071929e-06</v>
+        <v>5.002110405363583e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.53819444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>342786.3841388217</v>
+        <v>394886.551234845</v>
       </c>
     </row>
   </sheetData>
@@ -18473,28 +18473,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>759.5535864748836</v>
+        <v>828.7545760656031</v>
       </c>
       <c r="AB2" t="n">
-        <v>1039.254726154215</v>
+        <v>1133.938573044433</v>
       </c>
       <c r="AC2" t="n">
-        <v>940.0697136932253</v>
+        <v>1025.717067125855</v>
       </c>
       <c r="AD2" t="n">
-        <v>759553.5864748836</v>
+        <v>828754.5760656032</v>
       </c>
       <c r="AE2" t="n">
-        <v>1039254.726154215</v>
+        <v>1133938.573044433</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.604873644379828e-06</v>
+        <v>2.819699684479764e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.31597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>940069.7136932253</v>
+        <v>1025717.067125855</v>
       </c>
     </row>
     <row r="3">
@@ -18579,28 +18579,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>442.5998362613176</v>
+        <v>492.1509661122547</v>
       </c>
       <c r="AB3" t="n">
-        <v>605.5846220994267</v>
+        <v>673.3826640030445</v>
       </c>
       <c r="AC3" t="n">
-        <v>547.788475709612</v>
+        <v>609.1159676490979</v>
       </c>
       <c r="AD3" t="n">
-        <v>442599.8362613177</v>
+        <v>492150.9661122547</v>
       </c>
       <c r="AE3" t="n">
-        <v>605584.6220994267</v>
+        <v>673382.6640030445</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.20952015456527e-06</v>
+        <v>3.882039750915658e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.672309027777779</v>
       </c>
       <c r="AH3" t="n">
-        <v>547788.475709612</v>
+        <v>609115.9676490979</v>
       </c>
     </row>
     <row r="4">
@@ -18685,28 +18685,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>365.9692573304167</v>
+        <v>415.435046326782</v>
       </c>
       <c r="AB4" t="n">
-        <v>500.7352833036236</v>
+        <v>568.4165580850437</v>
       </c>
       <c r="AC4" t="n">
-        <v>452.9458106515091</v>
+        <v>514.1676795590562</v>
       </c>
       <c r="AD4" t="n">
-        <v>365969.2573304167</v>
+        <v>415435.046326782</v>
       </c>
       <c r="AE4" t="n">
-        <v>500735.2833036236</v>
+        <v>568416.5580850437</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.431092572792834e-06</v>
+        <v>4.271333749202425e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.791232638888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>452945.8106515091</v>
+        <v>514167.6795590562</v>
       </c>
     </row>
     <row r="5">
@@ -18791,28 +18791,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>338.8910691520526</v>
+        <v>378.6173138873738</v>
       </c>
       <c r="AB5" t="n">
-        <v>463.6857116326346</v>
+        <v>518.0409122777265</v>
       </c>
       <c r="AC5" t="n">
-        <v>419.4321981013987</v>
+        <v>468.5998146849263</v>
       </c>
       <c r="AD5" t="n">
-        <v>338891.0691520526</v>
+        <v>378617.3138873738</v>
       </c>
       <c r="AE5" t="n">
-        <v>463685.7116326346</v>
+        <v>518040.9122777266</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.513911418894781e-06</v>
+        <v>4.41684319478428e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.500434027777779</v>
       </c>
       <c r="AH5" t="n">
-        <v>419432.1981013988</v>
+        <v>468599.8146849264</v>
       </c>
     </row>
     <row r="6">
@@ -18897,28 +18897,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>340.4764521149125</v>
+        <v>380.2026968502337</v>
       </c>
       <c r="AB6" t="n">
-        <v>465.8549025445795</v>
+        <v>520.2101031896715</v>
       </c>
       <c r="AC6" t="n">
-        <v>421.3943644771862</v>
+        <v>470.5619810607139</v>
       </c>
       <c r="AD6" t="n">
-        <v>340476.4521149126</v>
+        <v>380202.6968502337</v>
       </c>
       <c r="AE6" t="n">
-        <v>465854.9025445795</v>
+        <v>520210.1031896715</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.513419035743164e-06</v>
+        <v>4.415978097010309e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.502604166666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>421394.3644771862</v>
+        <v>470561.9810607139</v>
       </c>
     </row>
   </sheetData>
@@ -19194,28 +19194,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1086.886793116861</v>
+        <v>1168.950047296185</v>
       </c>
       <c r="AB2" t="n">
-        <v>1487.126460403656</v>
+        <v>1599.409025147069</v>
       </c>
       <c r="AC2" t="n">
-        <v>1345.197198217826</v>
+        <v>1446.763672571697</v>
       </c>
       <c r="AD2" t="n">
-        <v>1086886.793116861</v>
+        <v>1168950.047296185</v>
       </c>
       <c r="AE2" t="n">
-        <v>1487126.460403656</v>
+        <v>1599409.025147069</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.308130534246208e-06</v>
+        <v>2.236757432360624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.7421875</v>
       </c>
       <c r="AH2" t="n">
-        <v>1345197.198217826</v>
+        <v>1446763.672571697</v>
       </c>
     </row>
     <row r="3">
@@ -19300,28 +19300,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>564.2713910719434</v>
+        <v>615.4756735880007</v>
       </c>
       <c r="AB3" t="n">
-        <v>772.0610111614851</v>
+        <v>842.1209694734686</v>
       </c>
       <c r="AC3" t="n">
-        <v>698.376591850667</v>
+        <v>761.7501260711239</v>
       </c>
       <c r="AD3" t="n">
-        <v>564271.3910719434</v>
+        <v>615475.6735880007</v>
       </c>
       <c r="AE3" t="n">
-        <v>772061.0111614851</v>
+        <v>842120.9694734686</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.962622829835334e-06</v>
+        <v>3.355866319628758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>10.49262152777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>698376.5918506669</v>
+        <v>761750.1260711239</v>
       </c>
     </row>
     <row r="4">
@@ -19406,28 +19406,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>462.1543156467267</v>
+        <v>513.2732573082124</v>
       </c>
       <c r="AB4" t="n">
-        <v>632.3399234772888</v>
+        <v>702.2831146670748</v>
       </c>
       <c r="AC4" t="n">
-        <v>571.9902886752723</v>
+        <v>635.2581998637904</v>
       </c>
       <c r="AD4" t="n">
-        <v>462154.3156467268</v>
+        <v>513273.2573082123</v>
       </c>
       <c r="AE4" t="n">
-        <v>632339.9234772888</v>
+        <v>702283.1146670748</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.210584025771884e-06</v>
+        <v>3.779852331290587e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9.31640625</v>
       </c>
       <c r="AH4" t="n">
-        <v>571990.2886752723</v>
+        <v>635258.1998637904</v>
       </c>
     </row>
     <row r="5">
@@ -19512,28 +19512,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>405.5968735910737</v>
+        <v>456.80106659858</v>
       </c>
       <c r="AB5" t="n">
-        <v>554.9555361184989</v>
+        <v>625.0153719609342</v>
       </c>
       <c r="AC5" t="n">
-        <v>501.9913586363355</v>
+        <v>565.364782075566</v>
       </c>
       <c r="AD5" t="n">
-        <v>405596.8735910737</v>
+        <v>456801.06659858</v>
       </c>
       <c r="AE5" t="n">
-        <v>554955.5361184989</v>
+        <v>625015.3719609343</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.34846677268953e-06</v>
+        <v>4.015616462536143e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.76953125</v>
       </c>
       <c r="AH5" t="n">
-        <v>501991.3586363355</v>
+        <v>565364.782075566</v>
       </c>
     </row>
     <row r="6">
@@ -19618,28 +19618,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>375.2726319310551</v>
+        <v>416.2190076746967</v>
       </c>
       <c r="AB6" t="n">
-        <v>513.4645708681375</v>
+        <v>569.4892085871945</v>
       </c>
       <c r="AC6" t="n">
-        <v>464.460232876533</v>
+        <v>515.1379578027562</v>
       </c>
       <c r="AD6" t="n">
-        <v>375272.6319310551</v>
+        <v>416219.0076746967</v>
       </c>
       <c r="AE6" t="n">
-        <v>513464.5708681374</v>
+        <v>569489.2085871946</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.43055113338035e-06</v>
+        <v>4.155971571639657e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>9</v>
+        <v>8.472222222222221</v>
       </c>
       <c r="AH6" t="n">
-        <v>464460.232876533</v>
+        <v>515137.9578027562</v>
       </c>
     </row>
     <row r="7">
@@ -19724,28 +19724,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>368.3429754863431</v>
+        <v>409.2893512299847</v>
       </c>
       <c r="AB7" t="n">
-        <v>503.9831092056164</v>
+        <v>560.0077469246735</v>
       </c>
       <c r="AC7" t="n">
-        <v>455.8836686077679</v>
+        <v>506.561393533991</v>
       </c>
       <c r="AD7" t="n">
-        <v>368342.9754863431</v>
+        <v>409289.3512299847</v>
       </c>
       <c r="AE7" t="n">
-        <v>503983.1092056163</v>
+        <v>560007.7469246734</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.446968005518515e-06</v>
+        <v>4.184042593460359e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>9</v>
+        <v>8.415798611111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>455883.6686077679</v>
+        <v>506561.393533991</v>
       </c>
     </row>
     <row r="8">
@@ -19830,28 +19830,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>369.5571465158026</v>
+        <v>410.5035222594443</v>
       </c>
       <c r="AB8" t="n">
-        <v>505.6443915735682</v>
+        <v>561.6690292926254</v>
       </c>
       <c r="AC8" t="n">
-        <v>457.3864005181469</v>
+        <v>508.0641254443701</v>
       </c>
       <c r="AD8" t="n">
-        <v>369557.1465158027</v>
+        <v>410503.5222594443</v>
       </c>
       <c r="AE8" t="n">
-        <v>505644.3915735682</v>
+        <v>561669.0292926254</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.447347586377201e-06</v>
+        <v>4.184691634427313e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>9</v>
+        <v>8.413628472222221</v>
       </c>
       <c r="AH8" t="n">
-        <v>457386.4005181469</v>
+        <v>508064.1254443701</v>
       </c>
     </row>
   </sheetData>
@@ -20127,28 +20127,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>289.8995124309718</v>
+        <v>338.6418318854347</v>
       </c>
       <c r="AB2" t="n">
-        <v>396.6533023719101</v>
+        <v>463.3446942088758</v>
       </c>
       <c r="AC2" t="n">
-        <v>358.7972678999405</v>
+        <v>419.1237269019426</v>
       </c>
       <c r="AD2" t="n">
-        <v>289899.5124309718</v>
+        <v>338641.8318854347</v>
       </c>
       <c r="AE2" t="n">
-        <v>396653.3023719101</v>
+        <v>463344.6942088758</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.195679794661274e-06</v>
+        <v>4.706353109128863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.05078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>358797.2678999405</v>
+        <v>419123.7269019426</v>
       </c>
     </row>
   </sheetData>
@@ -20424,28 +20424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>455.4847869287729</v>
+        <v>511.6689099246776</v>
       </c>
       <c r="AB2" t="n">
-        <v>623.2143800465436</v>
+        <v>700.0879757981114</v>
       </c>
       <c r="AC2" t="n">
-        <v>563.7356743017768</v>
+        <v>633.2725619675842</v>
       </c>
       <c r="AD2" t="n">
-        <v>455484.7869287729</v>
+        <v>511668.9099246776</v>
       </c>
       <c r="AE2" t="n">
-        <v>623214.3800465437</v>
+        <v>700087.9757981114</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.086265281867496e-06</v>
+        <v>3.843803032170647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.87239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>563735.6743017768</v>
+        <v>633272.5619675842</v>
       </c>
     </row>
     <row r="3">
@@ -20530,28 +20530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>305.053052238774</v>
+        <v>351.8589312595994</v>
       </c>
       <c r="AB3" t="n">
-        <v>417.3870440639391</v>
+        <v>481.4289126698793</v>
       </c>
       <c r="AC3" t="n">
-        <v>377.5522103848715</v>
+        <v>435.4820129343879</v>
       </c>
       <c r="AD3" t="n">
-        <v>305053.052238774</v>
+        <v>351858.9312595994</v>
       </c>
       <c r="AE3" t="n">
-        <v>417387.0440639391</v>
+        <v>481428.9126698793</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.577261890133877e-06</v>
+        <v>4.748431157866354e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.799913194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>377552.2103848715</v>
+        <v>435482.0129343879</v>
       </c>
     </row>
     <row r="4">
@@ -20636,28 +20636,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>304.0972121836104</v>
+        <v>350.9030912044358</v>
       </c>
       <c r="AB4" t="n">
-        <v>416.0792215317772</v>
+        <v>480.1210901377173</v>
       </c>
       <c r="AC4" t="n">
-        <v>376.3692045996386</v>
+        <v>434.2990071491552</v>
       </c>
       <c r="AD4" t="n">
-        <v>304097.2121836104</v>
+        <v>350903.0912044358</v>
       </c>
       <c r="AE4" t="n">
-        <v>416079.2215317772</v>
+        <v>480121.0901377173</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.587817585628748e-06</v>
+        <v>4.767879314676755e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.765190972222221</v>
       </c>
       <c r="AH4" t="n">
-        <v>376369.2045996386</v>
+        <v>434299.0071491551</v>
       </c>
     </row>
   </sheetData>
@@ -20933,28 +20933,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>629.784496993225</v>
+        <v>687.9818310926189</v>
       </c>
       <c r="AB2" t="n">
-        <v>861.6989329172329</v>
+        <v>941.3270929171999</v>
       </c>
       <c r="AC2" t="n">
-        <v>779.4595961616596</v>
+        <v>851.4881563300542</v>
       </c>
       <c r="AD2" t="n">
-        <v>629784.4969932251</v>
+        <v>687981.8310926189</v>
       </c>
       <c r="AE2" t="n">
-        <v>861698.932917233</v>
+        <v>941327.0929171999</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.777295166368842e-06</v>
+        <v>3.175008110772621e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.28515625</v>
       </c>
       <c r="AH2" t="n">
-        <v>779459.5961616597</v>
+        <v>851488.1563300542</v>
       </c>
     </row>
     <row r="3">
@@ -21039,28 +21039,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>390.7472766904065</v>
+        <v>439.1455056943261</v>
       </c>
       <c r="AB3" t="n">
-        <v>534.6376625210265</v>
+        <v>600.8582546233598</v>
       </c>
       <c r="AC3" t="n">
-        <v>483.6125943786911</v>
+        <v>543.5131861119623</v>
       </c>
       <c r="AD3" t="n">
-        <v>390747.2766904065</v>
+        <v>439145.5056943261</v>
       </c>
       <c r="AE3" t="n">
-        <v>534637.6625210266</v>
+        <v>600858.2546233598</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.347220989972596e-06</v>
+        <v>4.193139002434067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>10</v>
+        <v>9.303385416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>483612.5943786912</v>
+        <v>543513.1861119623</v>
       </c>
     </row>
     <row r="4">
@@ -21145,28 +21145,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>326.3097848113405</v>
+        <v>374.7932651612808</v>
       </c>
       <c r="AB4" t="n">
-        <v>446.4714433505804</v>
+        <v>512.8086801055629</v>
       </c>
       <c r="AC4" t="n">
-        <v>403.8608354238065</v>
+        <v>463.8669394077901</v>
       </c>
       <c r="AD4" t="n">
-        <v>326309.7848113405</v>
+        <v>374793.2651612808</v>
       </c>
       <c r="AE4" t="n">
-        <v>446471.4433505805</v>
+        <v>512808.6801055629</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.540818674402968e-06</v>
+        <v>4.538987137242793e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>9</v>
+        <v>8.59375</v>
       </c>
       <c r="AH4" t="n">
-        <v>403860.8354238065</v>
+        <v>463866.9394077901</v>
       </c>
     </row>
     <row r="5">
@@ -21251,28 +21251,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>325.5377672633759</v>
+        <v>364.4781650815571</v>
       </c>
       <c r="AB5" t="n">
-        <v>445.4151348824449</v>
+        <v>498.6951051063866</v>
       </c>
       <c r="AC5" t="n">
-        <v>402.9053395533315</v>
+        <v>451.1003441980083</v>
       </c>
       <c r="AD5" t="n">
-        <v>325537.7672633759</v>
+        <v>364478.1650815571</v>
       </c>
       <c r="AE5" t="n">
-        <v>445415.1348824449</v>
+        <v>498695.1051063866</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.54766100420612e-06</v>
+        <v>4.551210460094659e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>9</v>
+        <v>8.572048611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>402905.3395533315</v>
+        <v>451100.3441980082</v>
       </c>
     </row>
   </sheetData>
